--- a/AzentioAutomationFramework_Tawruqq/TestData/TawruqqTestData.xlsx
+++ b/AzentioAutomationFramework_Tawruqq/TestData/TawruqqTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,22 @@
     <sheet name="TW_IdentDetails_TestData" sheetId="39" r:id="rId8"/>
     <sheet name="TW_CommodityPO_TestData" sheetId="40" r:id="rId9"/>
     <sheet name="TW_offering_ExeTrack" sheetId="42" r:id="rId10"/>
-    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId11"/>
+    <sheet name="ApplicationDetails_AppData" sheetId="43" r:id="rId11"/>
+    <sheet name="InsuranceInfoTestData" sheetId="45" r:id="rId12"/>
+    <sheet name="EmploymentDetailsTestData" sheetId="46" r:id="rId13"/>
+    <sheet name="TW_AppData_CustomerDetails" sheetId="47" r:id="rId14"/>
+    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId15"/>
+    <sheet name="TawaAppDataEntryIncomeDetails" sheetId="48" r:id="rId16"/>
+    <sheet name="TWAppDataEntryFacilityDetails" sheetId="49" r:id="rId17"/>
+    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="50" r:id="rId18"/>
+    <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="51" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="484">
   <si>
     <t>UserName</t>
   </si>
@@ -1002,13 +1010,487 @@
   </si>
   <si>
     <t>v0169</t>
+  </si>
+  <si>
+    <t>0353</t>
+  </si>
+  <si>
+    <t>userType08</t>
+  </si>
+  <si>
+    <t>Topup_Type</t>
+  </si>
+  <si>
+    <t>Topup_Application</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_01_D1</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawarooq Retail Loan-Tawaroow Retail Sub product </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Azentio Main Branch </t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Vasai (SPOKE Maharashtra)</t>
+  </si>
+  <si>
+    <t>Pranav Karhade</t>
+  </si>
+  <si>
+    <t>3398</t>
+  </si>
+  <si>
+    <t>SAUDI BANK</t>
+  </si>
+  <si>
+    <t>Yogesh Shivaji Nimse</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_02</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_02_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_03</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_03_D1</t>
+  </si>
+  <si>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_04</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_04_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_05</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_05_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_06</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_06_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_INS_001</t>
+  </si>
+  <si>
+    <t>AT_TW_INS_001_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_01_D1</t>
+  </si>
+  <si>
+    <t>insuranceQuotationId</t>
+  </si>
+  <si>
+    <t>insuranceYear</t>
+  </si>
+  <si>
+    <t>depriciation</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremium</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>NetPremium</t>
+  </si>
+  <si>
+    <t>First Year</t>
+  </si>
+  <si>
+    <t>3611</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>Ref No</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Special Char</t>
+  </si>
+  <si>
+    <t>Negative Number</t>
+  </si>
+  <si>
+    <t>Matching_Value</t>
+  </si>
+  <si>
+    <t>Mismatched_Value</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_01_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_01_01</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_01_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_01_02</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_02</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>!&amp;</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_06</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Pondi</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_DOC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_DOC_05</t>
+  </si>
+  <si>
+    <t>Lumpsum Amount</t>
+  </si>
+  <si>
+    <t>Pension Amount</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Invalid Data</t>
+  </si>
+  <si>
+    <t>Adjusted %</t>
+  </si>
+  <si>
+    <t>Salary Credited To Bank</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Deduction_Frequency</t>
+  </si>
+  <si>
+    <t>Deduction_Amt</t>
+  </si>
+  <si>
+    <t>Deduction_Adj%</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Mismatched Currency</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_02</t>
+  </si>
+  <si>
+    <t>CASH RENTAL INCOME</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>HDFC BANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ashok Marg Jaipur Branch </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASH RENTAL INCOME </t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_03</t>
+  </si>
+  <si>
+    <t>Commission Income</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>JAIPUR BRANCH</t>
+  </si>
+  <si>
+    <t>INCOME TAX</t>
+  </si>
+  <si>
+    <t>Half Yearly</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_04</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_04</t>
+  </si>
+  <si>
+    <t>Rental Income In Bank</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_05</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_06</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_07</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_07</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_INC_08</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_AD_INC_08</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>ProgrameCode</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>PricingIndicator</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>ClassificationModification</t>
+  </si>
+  <si>
+    <t>MisMatchRecord</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>AT_FI_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_001</t>
+  </si>
+  <si>
+    <t>AT_FI_005</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_005</t>
+  </si>
+  <si>
+    <t>Home Loan</t>
+  </si>
+  <si>
+    <t>AHL</t>
+  </si>
+  <si>
+    <t>Home Loan-Ready to move / Under construction Property from Builder/Society</t>
+  </si>
+  <si>
+    <t>Ready to move / Under construction Property from Builder/Society</t>
+  </si>
+  <si>
+    <t>Income Based</t>
+  </si>
+  <si>
+    <t>Auto Leasing Loan</t>
+  </si>
+  <si>
+    <t>Ijara auto retail 3</t>
+  </si>
+  <si>
+    <t>Non Housing Loan</t>
+  </si>
+  <si>
+    <t>AT_FI_012</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_012</t>
+  </si>
+  <si>
+    <t>AT_FI_013</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_013</t>
+  </si>
+  <si>
+    <t>Search Record</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_01</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_01</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_02</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_02</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_03</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_03</t>
+  </si>
+  <si>
+    <t>AT_IJ_QA_04</t>
+  </si>
+  <si>
+    <t>DS_AT_IJ_QA_04</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>AT_MU_INS_01</t>
+  </si>
+  <si>
+    <t>DS_AT_MU_INS_01</t>
+  </si>
+  <si>
+    <t>karthikeyan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,8 +1531,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,8 +1625,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1203,6 +1711,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1212,7 +1770,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1254,6 +1812,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -1550,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1652,6 +2237,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -1661,6 +2257,7 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1760,10 +2357,803 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="47.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="31.28515625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AF3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="38">
+        <v>3220</v>
+      </c>
+      <c r="D2" s="39">
+        <v>449</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="26">
+        <v>10</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="26">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="26">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="26">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="26">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="!@"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2211,13 +3601,817 @@
         <v>60</v>
       </c>
     </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>401</v>
+      </c>
+      <c r="N1" t="s">
+        <v>402</v>
+      </c>
+      <c r="O1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2">
+        <v>3393</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3">
+        <v>3393</v>
+      </c>
+      <c r="D3">
+        <v>1450000</v>
+      </c>
+      <c r="E3">
+        <v>13000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3">
+        <v>85000</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>414</v>
+      </c>
+      <c r="M3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N3" t="s">
+        <v>416</v>
+      </c>
+      <c r="O3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3">
+        <v>1500</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4">
+        <v>3393</v>
+      </c>
+      <c r="F4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4">
+        <v>58000</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>422</v>
+      </c>
+      <c r="M4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N4" t="s">
+        <v>424</v>
+      </c>
+      <c r="O4" t="s">
+        <v>425</v>
+      </c>
+      <c r="P4">
+        <v>750</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5">
+        <v>3393</v>
+      </c>
+      <c r="D5">
+        <v>1150500</v>
+      </c>
+      <c r="E5">
+        <v>18500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6">
+        <v>3393</v>
+      </c>
+      <c r="D6">
+        <v>880000</v>
+      </c>
+      <c r="E6">
+        <v>8950</v>
+      </c>
+      <c r="F6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6">
+        <v>22000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8">
+        <v>3393</v>
+      </c>
+      <c r="R8" t="s">
+        <v>436</v>
+      </c>
+      <c r="S8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9">
+        <v>3393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" t="s">
+        <v>406</v>
+      </c>
+      <c r="O1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>452</v>
+      </c>
+      <c r="R1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3">
+        <v>3016</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" t="s">
+        <v>465</v>
+      </c>
+      <c r="K3">
+        <v>1000000</v>
+      </c>
+      <c r="L3">
+        <v>20000000</v>
+      </c>
+      <c r="M3">
+        <v>60000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>436</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4">
+        <v>3016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5">
+        <v>3016</v>
+      </c>
+      <c r="R5" t="s">
+        <v>453</v>
+      </c>
+      <c r="S5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="50">
+        <v>450</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="50">
+        <v>10</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="50">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4517,7 +6711,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4746,7 +6940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/AzentioAutomationFramework_Tawruqq/TestData/TawruqqTestData.xlsx
+++ b/AzentioAutomationFramework_Tawruqq/TestData/TawruqqTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -12,27 +12,29 @@
     <sheet name="TW_NewApp_AppDetails_ExeTrack" sheetId="25" r:id="rId3"/>
     <sheet name="TW_NewApp_AppDetails_TestData" sheetId="35" r:id="rId4"/>
     <sheet name="TW_NewApp_CustDetails_TestData" sheetId="36" r:id="rId5"/>
-    <sheet name="TW_NewApp_AddDetails_TestData" sheetId="37" r:id="rId6"/>
-    <sheet name="TW_ContDetails_TestData" sheetId="38" r:id="rId7"/>
-    <sheet name="TW_IdentDetails_TestData" sheetId="39" r:id="rId8"/>
-    <sheet name="TW_CommodityPO_TestData" sheetId="40" r:id="rId9"/>
-    <sheet name="TW_offering_ExeTrack" sheetId="42" r:id="rId10"/>
-    <sheet name="ApplicationDetails_AppData" sheetId="43" r:id="rId11"/>
-    <sheet name="InsuranceInfoTestData" sheetId="45" r:id="rId12"/>
-    <sheet name="EmploymentDetailsTestData" sheetId="46" r:id="rId13"/>
-    <sheet name="TW_AppData_CustomerDetails" sheetId="47" r:id="rId14"/>
-    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId15"/>
-    <sheet name="TawaAppDataEntryIncomeDetails" sheetId="48" r:id="rId16"/>
-    <sheet name="TWAppDataEntryFacilityDetails" sheetId="49" r:id="rId17"/>
-    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="50" r:id="rId18"/>
-    <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="51" r:id="rId19"/>
+    <sheet name="Tawar_NewApp_CustomerDetails" sheetId="52" r:id="rId6"/>
+    <sheet name="TW_NewApp_AddDetails_TestData" sheetId="37" r:id="rId7"/>
+    <sheet name="TW_ContDetails_TestData" sheetId="38" r:id="rId8"/>
+    <sheet name="TW_IdentDetails_TestData" sheetId="39" r:id="rId9"/>
+    <sheet name="TW_CommodityPO_TestData" sheetId="40" r:id="rId10"/>
+    <sheet name="TW_offering_ExeTrack" sheetId="42" r:id="rId11"/>
+    <sheet name="ApplicationDetails_AppData" sheetId="43" r:id="rId12"/>
+    <sheet name="InsuranceInfoTestData" sheetId="45" r:id="rId13"/>
+    <sheet name="EmploymentDetailsTestData" sheetId="46" r:id="rId14"/>
+    <sheet name="TW_AppData_CustomerDetails" sheetId="47" r:id="rId15"/>
+    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId16"/>
+    <sheet name="TawaAppDataEntryIncomeDetails" sheetId="48" r:id="rId17"/>
+    <sheet name="TWAppDataEntryFacilityDetails" sheetId="49" r:id="rId18"/>
+    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="50" r:id="rId19"/>
+    <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="51" r:id="rId20"/>
+    <sheet name="CustomerReference" sheetId="54" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="560">
   <si>
     <t>UserName</t>
   </si>
@@ -1484,13 +1486,245 @@
   </si>
   <si>
     <t>karthikeyan</t>
+  </si>
+  <si>
+    <t>Record_Firstname</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Maritail status</t>
+  </si>
+  <si>
+    <t>Education level</t>
+  </si>
+  <si>
+    <t>residential status</t>
+  </si>
+  <si>
+    <t>matching data</t>
+  </si>
+  <si>
+    <t>mismatch data</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>DataSetID</t>
+  </si>
+  <si>
+    <t>RelationshipType</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>CustomerFullName</t>
+  </si>
+  <si>
+    <t>IdentificationType</t>
+  </si>
+  <si>
+    <t>IdentificationNumber</t>
+  </si>
+  <si>
+    <t>ResidenceAddress</t>
+  </si>
+  <si>
+    <t>OfficeAddress</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>OfficePhoneNumber</t>
+  </si>
+  <si>
+    <t>PrimaryMobileNumber</t>
+  </si>
+  <si>
+    <t>AlternativeMobileNumber</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>NoOfYearsKnown</t>
+  </si>
+  <si>
+    <t>CIFNumber</t>
+  </si>
+  <si>
+    <t>AT_IJ_NewApp_CR_04</t>
+  </si>
+  <si>
+    <t>AT_IJ_NewApp_CR_04_D1</t>
+  </si>
+  <si>
+    <t>AT_IJ_NewApp_CR_05</t>
+  </si>
+  <si>
+    <t>AT_IJ_NewApp_CR_05_D1</t>
+  </si>
+  <si>
+    <t>$#$#</t>
+  </si>
+  <si>
+    <t>AT_IJ_NewApp_CR_06</t>
+  </si>
+  <si>
+    <t>AT_IJ_NewApp_CR_06_D1</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_01</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_01_D1</t>
+  </si>
+  <si>
+    <t>Brother's wife</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>testtest</t>
+  </si>
+  <si>
+    <t>787878787878</t>
+  </si>
+  <si>
+    <t>9879879877</t>
+  </si>
+  <si>
+    <t>9292959592</t>
+  </si>
+  <si>
+    <t>9696969696</t>
+  </si>
+  <si>
+    <t>9393939393</t>
+  </si>
+  <si>
+    <t>aaa@d.com</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_02</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_02_D1</t>
+  </si>
+  <si>
+    <t>#$#$#$</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_03</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_03_D1</t>
+  </si>
+  <si>
+    <t>Daughter's son</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>testmod</t>
+  </si>
+  <si>
+    <t>545454545454</t>
+  </si>
+  <si>
+    <t>9494949491</t>
+  </si>
+  <si>
+    <t>9292959597</t>
+  </si>
+  <si>
+    <t>9598959855</t>
+  </si>
+  <si>
+    <t>8585858585</t>
+  </si>
+  <si>
+    <t>ccc@c.com</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_04</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_04_D1</t>
+  </si>
+  <si>
+    <t>#$$#$#</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_05</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_05_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_06</t>
+  </si>
+  <si>
+    <t>AT_TW_CR_06_D1</t>
+  </si>
+  <si>
+    <t>4224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1778,58 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1762,15 +2048,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1839,11 +2196,54 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="40">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="8"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="9"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="10"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="11"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
+    <cellStyle name="Heading" xfId="12"/>
+    <cellStyle name="Heading1" xfId="13"/>
+    <cellStyle name="Heading1 1" xfId="14"/>
+    <cellStyle name="Heading1 2" xfId="15"/>
+    <cellStyle name="Heading1 3" xfId="16"/>
+    <cellStyle name="Heading1 4" xfId="17"/>
+    <cellStyle name="Heading1 5" xfId="18"/>
+    <cellStyle name="Heading1 6" xfId="19"/>
+    <cellStyle name="Heading1 7" xfId="20"/>
+    <cellStyle name="Heading1 8" xfId="21"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Result" xfId="22"/>
+    <cellStyle name="Result 1" xfId="23"/>
+    <cellStyle name="Result 2" xfId="24"/>
+    <cellStyle name="Result 3" xfId="25"/>
+    <cellStyle name="Result 4" xfId="26"/>
+    <cellStyle name="Result 5" xfId="27"/>
+    <cellStyle name="Result 6" xfId="28"/>
+    <cellStyle name="Result 7" xfId="29"/>
+    <cellStyle name="Result 8" xfId="30"/>
+    <cellStyle name="Result2" xfId="31"/>
+    <cellStyle name="Result2 1" xfId="32"/>
+    <cellStyle name="Result2 2" xfId="33"/>
+    <cellStyle name="Result2 3" xfId="34"/>
+    <cellStyle name="Result2 4" xfId="35"/>
+    <cellStyle name="Result2 5" xfId="36"/>
+    <cellStyle name="Result2 6" xfId="37"/>
+    <cellStyle name="Result2 7" xfId="38"/>
+    <cellStyle name="Result2 8" xfId="39"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2265,6 +2665,129 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,7 +2878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG7"/>
   <sheetViews>
@@ -2834,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -2939,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2982,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -3148,7 +3671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -3755,7 +4278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
@@ -4047,11 +4570,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -4233,7 +4756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4301,112 +4824,6 @@
       </c>
       <c r="C5" s="1">
         <v>3620</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30">
-      <c r="A1" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>480</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" s="50">
-        <v>450</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="50">
-        <v>10</v>
-      </c>
-      <c r="G2" s="50">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="50">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="50">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="50">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="50">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="50">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4644,6 +5061,574 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="50">
+        <v>450</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="50">
+        <v>10</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="50">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="50">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2971</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="N5" s="7">
+        <v>123</v>
+      </c>
+      <c r="O5" s="7">
+        <v>123</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="U5" s="7">
+        <v>5</v>
+      </c>
+      <c r="V5" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="N7" s="7">
+        <v>456</v>
+      </c>
+      <c r="O7" s="7">
+        <v>456</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="U7" s="7">
+        <v>7</v>
+      </c>
+      <c r="V7" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T5" r:id="rId1"/>
+    <hyperlink ref="T7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5484,7 +6469,7 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5940,6 +6925,140 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="53" customWidth="1"/>
+    <col min="4" max="5" width="27" style="53" customWidth="1"/>
+    <col min="6" max="1024" width="11" style="53" customWidth="1"/>
+    <col min="1025" max="16384" width="10.28515625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75">
+      <c r="A1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75">
+      <c r="A2" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="53">
+        <v>3877</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75">
+      <c r="A3" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="53">
+        <v>3877</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="15.5972440944882" bottom="15.5972440944882" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC8"/>
   <sheetViews>
@@ -6404,7 +7523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
@@ -6706,12 +7825,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6934,127 +8053,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AzentioAutomationFramework_Tawruqq/TestData/TawruqqTestData.xlsx
+++ b/AzentioAutomationFramework_Tawruqq/TestData/TawruqqTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="23256" windowHeight="12600" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="560">
   <si>
     <t>UserName</t>
   </si>
@@ -1200,9 +1200,6 @@
     <t>DS_AT_TW_AD_06</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Pondi</t>
   </si>
   <si>
@@ -1714,6 +1711,9 @@
   </si>
   <si>
     <t>4224</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
 </sst>
 </file>
@@ -2538,15 +2538,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2671,16 +2671,16 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.44140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2794,16 +2794,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2886,41 +2886,41 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.6640625" style="3" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="47.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="47.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.88671875" style="3" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="31.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="31.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="29" max="29" width="31.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="26.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="17.5546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="9.109375" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -3365,20 +3365,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3470,11 +3470,11 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3510,21 +3510,21 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3639,18 +3639,18 @@
       <c r="G5" s="47"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="J5" s="46" t="s">
         <v>388</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>390</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>391</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>367</v>
@@ -3673,22 +3673,22 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4180,33 +4180,33 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>352</v>
+      <c r="A44" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>354</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>354</v>
+      <c r="A45" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>356</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>356</v>
+      <c r="A46" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>378</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>60</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="45" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>60</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="45" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>60</v>
@@ -4236,40 +4236,29 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="45" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>387</v>
+      <c r="A50" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>390</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4284,27 +4273,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4318,60 +4307,60 @@
         <v>369</v>
       </c>
       <c r="D1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>394</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>395</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>396</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>397</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>398</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>399</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>400</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>401</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>402</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>403</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>404</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>405</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>406</v>
-      </c>
-      <c r="S1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>408</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>409</v>
       </c>
       <c r="C2">
         <v>3393</v>
@@ -4382,10 +4371,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>410</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>411</v>
       </c>
       <c r="C3">
         <v>3393</v>
@@ -4397,10 +4386,10 @@
         <v>13000</v>
       </c>
       <c r="F3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" t="s">
         <v>412</v>
-      </c>
-      <c r="G3" t="s">
-        <v>413</v>
       </c>
       <c r="H3">
         <v>85000</v>
@@ -4412,16 +4401,16 @@
         <v>164</v>
       </c>
       <c r="L3" t="s">
+        <v>413</v>
+      </c>
+      <c r="M3" t="s">
         <v>414</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>415</v>
       </c>
-      <c r="N3" t="s">
-        <v>416</v>
-      </c>
       <c r="O3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P3">
         <v>1500</v>
@@ -4430,24 +4419,24 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>418</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>419</v>
       </c>
       <c r="C4">
         <v>3393</v>
       </c>
       <c r="F4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" t="s">
         <v>420</v>
-      </c>
-      <c r="G4" t="s">
-        <v>421</v>
       </c>
       <c r="H4">
         <v>58000</v>
@@ -4456,16 +4445,16 @@
         <v>100</v>
       </c>
       <c r="L4" t="s">
+        <v>421</v>
+      </c>
+      <c r="M4" t="s">
         <v>422</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>423</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>424</v>
-      </c>
-      <c r="O4" t="s">
-        <v>425</v>
       </c>
       <c r="P4">
         <v>750</v>
@@ -4476,10 +4465,10 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>426</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>427</v>
       </c>
       <c r="C5">
         <v>3393</v>
@@ -4491,18 +4480,18 @@
         <v>18500</v>
       </c>
       <c r="F5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>429</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>430</v>
       </c>
       <c r="C6">
         <v>3393</v>
@@ -4514,24 +4503,24 @@
         <v>8950</v>
       </c>
       <c r="F6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H6">
         <v>22000</v>
       </c>
       <c r="I6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>432</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>433</v>
       </c>
       <c r="C7">
         <v>3393</v>
@@ -4539,27 +4528,27 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>434</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>435</v>
       </c>
       <c r="C8">
         <v>3393</v>
       </c>
       <c r="R8" t="s">
+        <v>435</v>
+      </c>
+      <c r="S8" t="s">
         <v>436</v>
-      </c>
-      <c r="S8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>438</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>439</v>
       </c>
       <c r="C9">
         <v>3393</v>
@@ -4578,23 +4567,23 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4608,60 +4597,60 @@
         <v>369</v>
       </c>
       <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
         <v>440</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>441</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>442</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>443</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>444</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>445</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>446</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>447</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>448</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" t="s">
         <v>449</v>
       </c>
-      <c r="N1" t="s">
-        <v>406</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>450</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>451</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>452</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>453</v>
-      </c>
-      <c r="S1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" t="s">
         <v>455</v>
-      </c>
-      <c r="B2" t="s">
-        <v>456</v>
       </c>
       <c r="C2">
         <v>3016</v>
@@ -4669,34 +4658,34 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
         <v>457</v>
-      </c>
-      <c r="B3" t="s">
-        <v>458</v>
       </c>
       <c r="C3">
         <v>3016</v>
       </c>
       <c r="D3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" t="s">
         <v>459</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>460</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>461</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>462</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>463</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>464</v>
-      </c>
-      <c r="J3" t="s">
-        <v>465</v>
       </c>
       <c r="K3">
         <v>1000000</v>
@@ -4708,47 +4697,47 @@
         <v>60000</v>
       </c>
       <c r="N3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" t="s">
         <v>467</v>
-      </c>
-      <c r="B4" t="s">
-        <v>468</v>
       </c>
       <c r="C4">
         <v>3016</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" t="s">
         <v>469</v>
-      </c>
-      <c r="B5" t="s">
-        <v>470</v>
       </c>
       <c r="C5">
         <v>3016</v>
       </c>
       <c r="R5" t="s">
+        <v>452</v>
+      </c>
+      <c r="S5" t="s">
         <v>453</v>
-      </c>
-      <c r="S5" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4764,11 +4753,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4779,15 +4768,15 @@
         <v>196</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>472</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>473</v>
       </c>
       <c r="C2" s="1">
         <v>3620</v>
@@ -4795,10 +4784,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>474</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>475</v>
       </c>
       <c r="C3" s="1">
         <v>3620</v>
@@ -4806,10 +4795,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>476</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>477</v>
       </c>
       <c r="C4" s="1">
         <v>3620</v>
@@ -4817,10 +4806,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>478</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>479</v>
       </c>
       <c r="C5" s="1">
         <v>3620</v>
@@ -4840,23 +4829,23 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -5072,23 +5061,23 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="28.8">
       <c r="A1" s="51" t="s">
         <v>195</v>
       </c>
@@ -5096,7 +5085,7 @@
         <v>196</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D1" s="51" t="s">
         <v>357</v>
@@ -5128,13 +5117,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D2" s="50">
         <v>450</v>
@@ -5174,32 +5163,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -5207,7 +5196,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>369</v>
@@ -5219,63 +5208,63 @@
         <v>149</v>
       </c>
       <c r="F1" s="55" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="H1" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="55" t="s">
         <v>499</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="K1" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="M1" s="55" t="s">
         <v>503</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="N1" s="55" t="s">
         <v>504</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="O1" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="P1" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="Q1" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="R1" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="S1" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="T1" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="U1" s="55" t="s">
         <v>511</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="V1" s="55" t="s">
         <v>512</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="C2" s="7">
         <v>2971</v>
@@ -5302,17 +5291,17 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="C3" s="7">
         <v>2971</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5334,19 +5323,19 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>521</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5368,39 +5357,39 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>226</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N5" s="7">
         <v>123</v>
@@ -5409,19 +5398,19 @@
         <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="U5" s="7">
         <v>5</v>
@@ -5432,20 +5421,20 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>536</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -5464,39 +5453,39 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>226</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N7" s="7">
         <v>456</v>
@@ -5505,19 +5494,19 @@
         <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="S7" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="T7" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="U7" s="7">
         <v>7</v>
@@ -5528,20 +5517,20 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -5560,13 +5549,13 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>556</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
@@ -5590,19 +5579,19 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5640,15 +5629,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5772,44 +5761,44 @@
       <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="62.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="62.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.44140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.88671875" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.5546875" customWidth="1" collapsed="1"/>
     <col min="31" max="31" width="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.33203125" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="18" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -6472,36 +6461,36 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="20" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="21" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -6932,17 +6921,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="53" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="53" customWidth="1"/>
     <col min="4" max="5" width="27" style="53" customWidth="1"/>
     <col min="6" max="1024" width="11" style="53" customWidth="1"/>
-    <col min="1025" max="16384" width="10.28515625" style="53"/>
+    <col min="1025" max="16384" width="10.33203125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
@@ -6953,25 +6942,25 @@
         <v>369</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>370</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="H1" s="53" t="s">
         <v>486</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>487</v>
       </c>
       <c r="I1" s="53" t="s">
         <v>130</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K1" s="53" t="s">
         <v>133</v>
@@ -6980,13 +6969,13 @@
         <v>137</v>
       </c>
       <c r="M1" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="N1" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="N1" s="53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75">
+    </row>
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="52" t="s">
         <v>233</v>
       </c>
@@ -6997,19 +6986,19 @@
         <v>3877</v>
       </c>
       <c r="D2" s="53" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>492</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>493</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>125</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>129</v>
@@ -7021,10 +7010,10 @@
         <v>134</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="52" t="s">
         <v>238</v>
       </c>
@@ -7035,16 +7024,16 @@
         <v>3877</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M3" s="54" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.6">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
     </row>
@@ -7066,37 +7055,37 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25.6640625" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="19" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.109375" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7531,24 +7520,24 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7833,19 +7822,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
